--- a/ProyectoRedes.xlsx
+++ b/ProyectoRedes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962D94E-149F-45F3-ADD3-FDA0EBBB4023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD131F-DE41-4608-9A08-4E8375BFD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="SUBNETEO" sheetId="1" r:id="rId1"/>
+    <sheet name="Estructura" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -80,24 +81,6 @@
     <t>192.168.9.255</t>
   </si>
   <si>
-    <t>192.168.10.0</t>
-  </si>
-  <si>
-    <t>192.168.11.255</t>
-  </si>
-  <si>
-    <t>192.168.12.0</t>
-  </si>
-  <si>
-    <t>192.168.13.255</t>
-  </si>
-  <si>
-    <t>192.168.14.0</t>
-  </si>
-  <si>
-    <t>192.168.15.255</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -137,15 +120,6 @@
     <t>192.168.8.1</t>
   </si>
   <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.12.1 </t>
-  </si>
-  <si>
-    <t>192.168.14.1</t>
-  </si>
-  <si>
     <t>192.168.1.254</t>
   </si>
   <si>
@@ -161,15 +135,6 @@
     <t>192.168.9.254</t>
   </si>
   <si>
-    <t>192.168.11.254</t>
-  </si>
-  <si>
-    <t>192.168.13.254</t>
-  </si>
-  <si>
-    <t>192.168.15.254</t>
-  </si>
-  <si>
     <t>192.168.252.0</t>
   </si>
   <si>
@@ -282,13 +247,97 @@
   </si>
   <si>
     <t>255.255.255.252/30</t>
+  </si>
+  <si>
+    <t>192.168.0.19</t>
+  </si>
+  <si>
+    <t>192.168.0.21</t>
+  </si>
+  <si>
+    <t>192.168.0.22</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenido </t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>SMTP</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>INTRANET</t>
+  </si>
+  <si>
+    <t>BD INTRANET</t>
+  </si>
+  <si>
+    <t>VLANS</t>
+  </si>
+  <si>
+    <t>vlDireccionGen.</t>
+  </si>
+  <si>
+    <t>vlGerCalidad</t>
+  </si>
+  <si>
+    <t>vlGerFinanzas</t>
+  </si>
+  <si>
+    <t>vlGerRH</t>
+  </si>
+  <si>
+    <t>vlGerCompras</t>
+  </si>
+  <si>
+    <t>vlGerVentas</t>
+  </si>
+  <si>
+    <t>velGerSoporte</t>
+  </si>
+  <si>
+    <t>vlFinanzas</t>
+  </si>
+  <si>
+    <t>vlCapacitacion</t>
+  </si>
+  <si>
+    <t>vlPersonal</t>
+  </si>
+  <si>
+    <t>vlCompras</t>
+  </si>
+  <si>
+    <t>vlVentas</t>
+  </si>
+  <si>
+    <t>vlSoporte</t>
+  </si>
+  <si>
+    <t>Matriz de adyacencia (Comunicaciones)</t>
+  </si>
+  <si>
+    <t>Puede comunicarse</t>
+  </si>
+  <si>
+    <t>No puede comunicarse</t>
+  </si>
+  <si>
+    <t>Misma vlan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +386,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +437,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -450,16 +533,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,33 +551,81 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,6 +642,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>345282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1309687</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E06341-5C81-A680-9B70-D434DD595592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="785812" y="5536407"/>
+          <a:ext cx="8584406" cy="4560094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,48 +996,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="G20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="15"/>
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -871,377 +1063,753 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>22</v>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2">
         <v>512</v>
       </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>23</v>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>24</v>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2">
         <v>512</v>
       </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>25</v>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="9" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>26</v>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
         <v>512</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>127</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
-        <v>127</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="18">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="11"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+    </row>
+    <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+    </row>
+    <row r="27" spans="2:22" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="K27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="V27" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I28" s="34" t="str">
+        <f>J27</f>
+        <v>vlDireccionGen.</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I29" s="34" t="str">
+        <f>K27</f>
+        <v>vlGerCalidad</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I30" s="34" t="str">
+        <f>L27</f>
+        <v>vlGerFinanzas</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I31" s="34" t="str">
+        <f>M27</f>
+        <v>vlGerRH</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I32" s="34" t="str">
+        <f>N27</f>
+        <v>vlGerCompras</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I33" s="34" t="str">
+        <f>O27</f>
+        <v>vlGerVentas</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="31"/>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I34" s="34" t="str">
+        <f>P27</f>
+        <v>velGerSoporte</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="26"/>
+    </row>
+    <row r="35" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I35" s="34" t="str">
+        <f>Q27</f>
+        <v>vlFinanzas</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+    </row>
+    <row r="36" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I36" s="34" t="str">
+        <f>R27</f>
+        <v>vlCapacitacion</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+    </row>
+    <row r="37" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I37" s="34" t="str">
+        <f>S27</f>
+        <v>vlPersonal</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+    </row>
+    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I38" s="34" t="str">
+        <f>T27</f>
+        <v>vlCompras</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+    </row>
+    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I39" s="34" t="str">
+        <f>U27</f>
+        <v>vlVentas</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="31"/>
+    </row>
+    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I40" s="34" t="str">
+        <f>V27</f>
+        <v>vlSoporte</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="I23:Q25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S23:T23"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B2F4F-D173-4FFA-9A5E-3653AC075074}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProyectoRedes.xlsx
+++ b/ProyectoRedes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD131F-DE41-4608-9A08-4E8375BFD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEF80B-876C-4B40-9394-7DD671445ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
-    <sheet name="SUBNETEO" sheetId="1" r:id="rId1"/>
-    <sheet name="Estructura" sheetId="2" r:id="rId2"/>
+    <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
+    <sheet name="CALCULO VLANS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="154">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -249,42 +249,9 @@
     <t>255.255.255.252/30</t>
   </si>
   <si>
-    <t>192.168.0.19</t>
-  </si>
-  <si>
-    <t>192.168.0.21</t>
-  </si>
-  <si>
-    <t>192.168.0.22</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contenido </t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>SMTP</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>INTRANET</t>
-  </si>
-  <si>
-    <t>BD INTRANET</t>
-  </si>
-  <si>
     <t>VLANS</t>
   </si>
   <si>
-    <t>vlDireccionGen.</t>
-  </si>
-  <si>
     <t>vlGerCalidad</t>
   </si>
   <si>
@@ -300,9 +267,6 @@
     <t>vlGerVentas</t>
   </si>
   <si>
-    <t>velGerSoporte</t>
-  </si>
-  <si>
     <t>vlFinanzas</t>
   </si>
   <si>
@@ -331,13 +295,217 @@
   </si>
   <si>
     <t>Misma vlan</t>
+  </si>
+  <si>
+    <t>vlServidores</t>
+  </si>
+  <si>
+    <t>vlDefault</t>
+  </si>
+  <si>
+    <t>Nom. vlan</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>No. dispositivos</t>
+  </si>
+  <si>
+    <t>No. trabajadores</t>
+  </si>
+  <si>
+    <t>VLAN 10</t>
+  </si>
+  <si>
+    <t>Director General</t>
+  </si>
+  <si>
+    <t>VLAN 20</t>
+  </si>
+  <si>
+    <t>Gerente Calidad</t>
+  </si>
+  <si>
+    <t>VLAN 30</t>
+  </si>
+  <si>
+    <t>Gerente Finanzas</t>
+  </si>
+  <si>
+    <t>VLAN 40</t>
+  </si>
+  <si>
+    <t>Administracion / Contabilidad</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>VLAN 50</t>
+  </si>
+  <si>
+    <t>R.H</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>VLAN 60</t>
+  </si>
+  <si>
+    <t>Capacitacion</t>
+  </si>
+  <si>
+    <t>R.H.</t>
+  </si>
+  <si>
+    <t>VLAN 70</t>
+  </si>
+  <si>
+    <t>Personal / Servicios / Seguridad</t>
+  </si>
+  <si>
+    <t>VLAN 80</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Jefe de Personal</t>
+  </si>
+  <si>
+    <t>VLAN 90</t>
+  </si>
+  <si>
+    <t>Proveduria / Almacen</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>VLAN 100</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>VLAN 110</t>
+  </si>
+  <si>
+    <t>Importacion / Venta canales / Entregas</t>
+  </si>
+  <si>
+    <t>VLAN 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soprte y desarrollo </t>
+  </si>
+  <si>
+    <t>Proveduria</t>
+  </si>
+  <si>
+    <t>VLAN 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas y TI / Nuevos proyectos </t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recepción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrador </t>
+  </si>
+  <si>
+    <t>Importacion</t>
+  </si>
+  <si>
+    <t>Canales</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Director Soporte y Desarrollo</t>
+  </si>
+  <si>
+    <t>Jefe Sistemas</t>
+  </si>
+  <si>
+    <t>Jefatura nuevos proyectos</t>
+  </si>
+  <si>
+    <t>Jefe de Capacitación</t>
+  </si>
+  <si>
+    <t>Jefe de servicios</t>
+  </si>
+  <si>
+    <t>Mostrador</t>
+  </si>
+  <si>
+    <t>Ventas canales</t>
+  </si>
+  <si>
+    <t>Jefe Entregas</t>
+  </si>
+  <si>
+    <t>VLAN 200</t>
+  </si>
+  <si>
+    <t>VLAN 99</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>vlDireccionGeneral</t>
+  </si>
+  <si>
+    <t>Gerente Compras</t>
+  </si>
+  <si>
+    <t>Gerente Ventas</t>
+  </si>
+  <si>
+    <t>vlGerSoporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerente Soprte y desarrollo </t>
+  </si>
+  <si>
+    <t>Num. vlan</t>
+  </si>
+  <si>
+    <t>TABLA DE DIRECCIONAMIENTO</t>
+  </si>
+  <si>
+    <t>TABLA DE VLANS</t>
+  </si>
+  <si>
+    <t>SI VES ESTO, MANDA UN STICKER AL CHAT PERSONAL DEL JEFE DE INGENIERIA PARA SABER QUIÉN ESTÁ REVISANDO EL DOCUMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +555,63 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,14 +619,13 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +680,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -521,11 +815,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -572,7 +987,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,50 +1023,190 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,6 +1214,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFE20419"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -648,23 +1235,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>345282</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1309687</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1313683</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E06341-5C81-A680-9B70-D434DD595592}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553BDD0C-01F6-4926-81C2-E4E6BBDACA4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,8 +1273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="785812" y="5536407"/>
-          <a:ext cx="8584406" cy="4560094"/>
+          <a:off x="1885950" y="2028825"/>
+          <a:ext cx="8819383" cy="4895850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,189 +1583,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-  <dimension ref="B2:V40"/>
+  <dimension ref="B2:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+    </row>
+    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="3" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="2">
+      <c r="C6" s="29"/>
+      <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
       </c>
-      <c r="E3" s="4">
-        <f>D3*0.1</f>
+      <c r="E6" s="4">
+        <f>D6*0.1</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="F3" s="4">
-        <f>D3+E3</f>
+      <c r="F6" s="4">
+        <f>D6+E6</f>
         <v>266.2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G6" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2">
-        <v>512</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2">
-        <v>512</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
@@ -1186,29 +1718,22 @@
       <c r="H9" s="2">
         <v>512</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>37</v>
@@ -1216,602 +1741,3717 @@
       <c r="H10" s="2">
         <v>512</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <v>512</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2">
+        <v>512</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2">
+        <v>512</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
         <v>127</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H14" s="13">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="I19" s="99"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I23" s="25" t="s">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+    </row>
+    <row r="26" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="99"/>
+      <c r="C26" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="92"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="17"/>
+      <c r="J28" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29" s="98"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+    </row>
+    <row r="30" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="98"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+    </row>
+    <row r="31" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+    </row>
+    <row r="32" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
+      <c r="J32" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+    </row>
+    <row r="33" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="29" t="s">
+      <c r="E33" s="80"/>
+      <c r="F33" s="80">
+        <v>1</v>
+      </c>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+    </row>
+    <row r="34" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="T23" s="30"/>
-    </row>
-    <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28" t="s">
+      <c r="C34" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="28"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="28" t="s">
+      <c r="E34" s="80"/>
+      <c r="F34" s="80">
+        <v>1</v>
+      </c>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+    </row>
+    <row r="35" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="27" spans="2:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="21" t="s">
+      <c r="C35" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80">
+        <v>1</v>
+      </c>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+    </row>
+    <row r="36" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80">
+        <v>8</v>
+      </c>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+    </row>
+    <row r="37" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80">
+        <v>1</v>
+      </c>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="71"/>
+      <c r="AG37" s="71"/>
+    </row>
+    <row r="38" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80">
+        <v>3</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+    </row>
+    <row r="39" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80">
+        <v>14</v>
+      </c>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="71"/>
+    </row>
+    <row r="40" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80">
+        <v>1</v>
+      </c>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+    </row>
+    <row r="41" spans="2:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80">
+        <v>8</v>
+      </c>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+    </row>
+    <row r="42" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83">
+        <f>H9-F49</f>
+        <v>457</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="71"/>
+    </row>
+    <row r="43" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80">
+        <v>1</v>
+      </c>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+    </row>
+    <row r="44" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35" t="s">
+      <c r="D44" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80">
+        <v>9</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80">
+        <v>1</v>
+      </c>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+    </row>
+    <row r="46" spans="2:33" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="D46" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80">
+        <v>2</v>
+      </c>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="71"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80">
+        <v>4</v>
+      </c>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
+      <c r="AA47" s="71"/>
+      <c r="AB47" s="71"/>
+      <c r="AC47" s="71"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="80">
+        <f>SUM(F33:F41,F43:F47)</f>
+        <v>55</v>
+      </c>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="71"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="71"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="71"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="71"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
+      <c r="Z54" s="71"/>
+      <c r="AA54" s="71"/>
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="71"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="71"/>
+      <c r="Z55" s="71"/>
+      <c r="AA55" s="71"/>
+      <c r="AB55" s="71"/>
+      <c r="AC55" s="71"/>
+      <c r="AD55" s="71"/>
+      <c r="AE55" s="71"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="71"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
+    </row>
+    <row r="57" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="71"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71"/>
+    </row>
+    <row r="58" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="71"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71"/>
+    </row>
+    <row r="59" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="71"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+    </row>
+    <row r="60" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="71"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
+    </row>
+    <row r="61" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+    </row>
+    <row r="62" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="71"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+    </row>
+    <row r="63" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="71"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="71"/>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="71"/>
+      <c r="AG63" s="71"/>
+    </row>
+    <row r="64" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="71"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="71"/>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
+    </row>
+    <row r="65" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="71"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+    </row>
+    <row r="66" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="71"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
+    </row>
+    <row r="67" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="71"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
+      <c r="Z67" s="71"/>
+      <c r="AA67" s="71"/>
+      <c r="AB67" s="71"/>
+      <c r="AC67" s="71"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="71"/>
+      <c r="AG67" s="71"/>
+    </row>
+    <row r="68" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="71"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
+      <c r="Z68" s="71"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="71"/>
+      <c r="AC68" s="71"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
+    </row>
+    <row r="69" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="71"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="71"/>
+      <c r="Z69" s="71"/>
+      <c r="AA69" s="71"/>
+      <c r="AB69" s="71"/>
+      <c r="AC69" s="71"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="71"/>
+      <c r="AG69" s="71"/>
+    </row>
+    <row r="70" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="71"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
+      <c r="V70" s="71"/>
+      <c r="W70" s="71"/>
+      <c r="X70" s="71"/>
+      <c r="Y70" s="71"/>
+      <c r="Z70" s="71"/>
+      <c r="AA70" s="71"/>
+      <c r="AB70" s="71"/>
+      <c r="AC70" s="71"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="71"/>
+      <c r="AF70" s="71"/>
+      <c r="AG70" s="71"/>
+    </row>
+    <row r="71" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
+      <c r="V71" s="71"/>
+      <c r="W71" s="71"/>
+      <c r="X71" s="71"/>
+      <c r="Y71" s="71"/>
+      <c r="Z71" s="71"/>
+      <c r="AA71" s="71"/>
+      <c r="AB71" s="71"/>
+      <c r="AC71" s="71"/>
+      <c r="AD71" s="71"/>
+      <c r="AE71" s="71"/>
+      <c r="AF71" s="71"/>
+      <c r="AG71" s="71"/>
+    </row>
+    <row r="72" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
+      <c r="V72" s="71"/>
+      <c r="W72" s="71"/>
+      <c r="X72" s="71"/>
+      <c r="Y72" s="71"/>
+      <c r="Z72" s="71"/>
+      <c r="AA72" s="71"/>
+      <c r="AB72" s="71"/>
+      <c r="AC72" s="71"/>
+      <c r="AD72" s="71"/>
+      <c r="AE72" s="71"/>
+      <c r="AF72" s="71"/>
+      <c r="AG72" s="71"/>
+    </row>
+    <row r="73" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
+      <c r="V73" s="71"/>
+      <c r="W73" s="71"/>
+      <c r="X73" s="71"/>
+      <c r="Y73" s="71"/>
+      <c r="Z73" s="71"/>
+      <c r="AA73" s="71"/>
+      <c r="AB73" s="71"/>
+      <c r="AC73" s="71"/>
+      <c r="AD73" s="71"/>
+      <c r="AE73" s="71"/>
+      <c r="AF73" s="71"/>
+      <c r="AG73" s="71"/>
+    </row>
+    <row r="74" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
+      <c r="V74" s="71"/>
+      <c r="W74" s="71"/>
+      <c r="X74" s="71"/>
+      <c r="Y74" s="71"/>
+      <c r="Z74" s="71"/>
+      <c r="AA74" s="71"/>
+      <c r="AB74" s="71"/>
+      <c r="AC74" s="71"/>
+      <c r="AD74" s="71"/>
+      <c r="AE74" s="71"/>
+      <c r="AF74" s="71"/>
+      <c r="AG74" s="71"/>
+    </row>
+    <row r="75" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
+      <c r="V75" s="71"/>
+      <c r="W75" s="71"/>
+      <c r="X75" s="71"/>
+      <c r="Y75" s="71"/>
+      <c r="Z75" s="71"/>
+      <c r="AA75" s="71"/>
+      <c r="AB75" s="71"/>
+      <c r="AC75" s="71"/>
+      <c r="AD75" s="71"/>
+      <c r="AE75" s="71"/>
+      <c r="AF75" s="71"/>
+      <c r="AG75" s="71"/>
+    </row>
+    <row r="76" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
+      <c r="V76" s="71"/>
+      <c r="W76" s="71"/>
+      <c r="X76" s="71"/>
+      <c r="Y76" s="71"/>
+      <c r="Z76" s="71"/>
+      <c r="AA76" s="71"/>
+      <c r="AB76" s="71"/>
+      <c r="AC76" s="71"/>
+      <c r="AD76" s="71"/>
+      <c r="AE76" s="71"/>
+      <c r="AF76" s="71"/>
+      <c r="AG76" s="71"/>
+    </row>
+    <row r="77" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
+      <c r="V77" s="71"/>
+      <c r="W77" s="71"/>
+      <c r="X77" s="71"/>
+      <c r="Y77" s="71"/>
+      <c r="Z77" s="71"/>
+      <c r="AA77" s="71"/>
+      <c r="AB77" s="71"/>
+      <c r="AC77" s="71"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="71"/>
+      <c r="AG77" s="71"/>
+    </row>
+    <row r="78" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
+      <c r="V78" s="71"/>
+      <c r="W78" s="71"/>
+      <c r="X78" s="71"/>
+      <c r="Y78" s="71"/>
+      <c r="Z78" s="71"/>
+      <c r="AA78" s="71"/>
+      <c r="AB78" s="71"/>
+      <c r="AC78" s="71"/>
+      <c r="AD78" s="71"/>
+      <c r="AE78" s="71"/>
+      <c r="AF78" s="71"/>
+      <c r="AG78" s="71"/>
+    </row>
+    <row r="79" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="71"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
+      <c r="V79" s="71"/>
+      <c r="W79" s="71"/>
+      <c r="X79" s="71"/>
+      <c r="Y79" s="71"/>
+      <c r="Z79" s="71"/>
+      <c r="AA79" s="71"/>
+      <c r="AB79" s="71"/>
+      <c r="AC79" s="71"/>
+      <c r="AD79" s="71"/>
+      <c r="AE79" s="71"/>
+      <c r="AF79" s="71"/>
+      <c r="AG79" s="71"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
+      <c r="U80" s="71"/>
+      <c r="V80" s="71"/>
+      <c r="W80" s="71"/>
+      <c r="X80" s="71"/>
+      <c r="Y80" s="71"/>
+      <c r="Z80" s="71"/>
+      <c r="AA80" s="71"/>
+      <c r="AB80" s="71"/>
+      <c r="AC80" s="71"/>
+      <c r="AD80" s="71"/>
+      <c r="AE80" s="71"/>
+      <c r="AF80" s="71"/>
+      <c r="AG80" s="71"/>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
+      <c r="V81" s="71"/>
+      <c r="W81" s="71"/>
+      <c r="X81" s="71"/>
+      <c r="Y81" s="71"/>
+      <c r="Z81" s="71"/>
+      <c r="AA81" s="71"/>
+      <c r="AB81" s="71"/>
+      <c r="AC81" s="71"/>
+      <c r="AD81" s="71"/>
+      <c r="AE81" s="71"/>
+      <c r="AF81" s="71"/>
+      <c r="AG81" s="71"/>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
+      <c r="V82" s="71"/>
+      <c r="W82" s="71"/>
+      <c r="X82" s="71"/>
+      <c r="Y82" s="71"/>
+      <c r="Z82" s="71"/>
+      <c r="AA82" s="71"/>
+      <c r="AB82" s="71"/>
+      <c r="AC82" s="71"/>
+      <c r="AD82" s="71"/>
+      <c r="AE82" s="71"/>
+      <c r="AF82" s="71"/>
+      <c r="AG82" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J28:P30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="C26:G27"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B2F4F-D173-4FFA-9A5E-3653AC075074}">
+  <dimension ref="C4:AP63"/>
+  <sheetViews>
+    <sheetView topLeftCell="B39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" customWidth="1"/>
+    <col min="29" max="42" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="J4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="U5" s="24"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O27" s="35" t="s">
+      <c r="U6" s="24"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="K8" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="X8" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="P27" s="35" t="s">
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+    </row>
+    <row r="9" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="J9" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+    </row>
+    <row r="10" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="J10" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="18"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+    </row>
+    <row r="11" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="J11" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="18"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+    </row>
+    <row r="12" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="J12" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="18"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+    </row>
+    <row r="13" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="J13" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="18"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+    </row>
+    <row r="14" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="J14" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="18"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+    </row>
+    <row r="15" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="J15" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="18"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+    </row>
+    <row r="16" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="J16" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="18"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+    </row>
+    <row r="17" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="J17" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="18"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+    </row>
+    <row r="18" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="J18" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="Q27" s="35" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+    </row>
+    <row r="19" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="J19" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="18"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+    </row>
+    <row r="20" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="J20" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="18"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+    </row>
+    <row r="21" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="J21" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+    </row>
+    <row r="22" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="J22" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="18"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+    </row>
+    <row r="23" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="J23" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="21"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+    </row>
+    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="33" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="R27" s="35" t="s">
+      <c r="D33" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="E33" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="T27" s="35" t="s">
+      <c r="F33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="35" t="s">
+      <c r="H33" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="V27" s="35" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I28" s="34" t="str">
-        <f>J27</f>
-        <v>vlDireccionGen.</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I29" s="34" t="str">
-        <f>K27</f>
-        <v>vlGerCalidad</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I30" s="34" t="str">
-        <f>L27</f>
-        <v>vlGerFinanzas</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I31" s="34" t="str">
-        <f>M27</f>
-        <v>vlGerRH</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I32" s="34" t="str">
-        <f>N27</f>
-        <v>vlGerCompras</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-    </row>
-    <row r="33" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I33" s="34" t="str">
-        <f>O27</f>
-        <v>vlGerVentas</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="31"/>
-    </row>
-    <row r="34" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I34" s="34" t="str">
-        <f>P27</f>
-        <v>velGerSoporte</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="26"/>
-    </row>
-    <row r="35" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I35" s="34" t="str">
-        <f>Q27</f>
-        <v>vlFinanzas</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-    </row>
-    <row r="36" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I36" s="34" t="str">
-        <f>R27</f>
-        <v>vlCapacitacion</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-    </row>
-    <row r="37" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I37" s="34" t="str">
-        <f>S27</f>
-        <v>vlPersonal</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-    </row>
-    <row r="38" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I38" s="34" t="str">
-        <f>T27</f>
-        <v>vlCompras</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-    </row>
-    <row r="39" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I39" s="34" t="str">
-        <f>U27</f>
-        <v>vlVentas</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="31"/>
-    </row>
-    <row r="40" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I40" s="34" t="str">
-        <f>V27</f>
-        <v>vlSoporte</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="33"/>
+      <c r="D34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43">
+        <v>1</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="44">
+        <v>1</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43">
+        <v>1</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="44">
+        <v>1</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="44">
+        <v>1</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43">
+        <v>8</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="44">
+        <v>4</v>
+      </c>
+      <c r="K37" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43">
+        <v>1</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="44">
+        <v>4</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43">
+        <v>3</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="58">
+        <v>1</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43">
+        <f>SUM(I41:I43)+F47</f>
+        <v>14</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="44">
+        <f>SUM(L40:L41)</f>
+        <v>3</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43">
+        <v>1</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="44">
+        <v>0</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <f>SUM(I45:I46)+F48</f>
+        <v>8</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="44">
+        <f>SUM(L43:L44)</f>
+        <v>9</v>
+      </c>
+      <c r="K42" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="44">
+        <v>3</v>
+      </c>
+      <c r="K43" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43">
+        <f>SUM(I48:I50)</f>
+        <v>9</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43">
+        <v>1</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="44">
+        <v>0</v>
+      </c>
+      <c r="K45" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45">
+        <f>SUM(I52:I53)</f>
+        <v>2</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="44">
+        <v>7</v>
+      </c>
+      <c r="K46" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46">
+        <v>2</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="44">
+        <v>1</v>
+      </c>
+      <c r="K47" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="C48" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64">
+        <v>1</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="44">
+        <v>0</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="69">
+        <v>4</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="44">
+        <v>5</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="44">
+        <f>SUM(L54:L55)</f>
+        <v>4</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E51" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="63">
+        <f>SUM(F34:F46)+F49</f>
+        <v>55</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="44">
+        <v>1</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H52" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="44">
+        <v>1</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L52" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H53" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="44">
+        <v>1</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="L53" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="K54" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="L54" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H55" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="44">
+        <f>SUM(I34:I53)</f>
+        <v>48</v>
+      </c>
+      <c r="K55" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K56" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K57" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H58" s="30"/>
+      <c r="K58" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K59" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="32">
+        <f>SUM(L34:L58)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I23:Q25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B27:G27"/>
+  <mergeCells count="5">
+    <mergeCell ref="J4:R6"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B2F4F-D173-4FFA-9A5E-3653AC075074}">
-  <dimension ref="B2:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ProyectoRedes.xlsx
+++ b/ProyectoRedes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEF80B-876C-4B40-9394-7DD671445ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A336CCE-0446-4852-9D1C-D846FD083CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="277">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -499,13 +499,382 @@
   </si>
   <si>
     <t>SI VES ESTO, MANDA UN STICKER AL CHAT PERSONAL DEL JEFE DE INGENIERIA PARA SABER QUIÉN ESTÁ REVISANDO EL DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Host tentativos</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.1 </t>
+  </si>
+  <si>
+    <t>192.168.0.62</t>
+  </si>
+  <si>
+    <t>255.255.255.192/26</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.129 </t>
+  </si>
+  <si>
+    <t>192.168.0.190</t>
+  </si>
+  <si>
+    <t>192.168.0.191</t>
+  </si>
+  <si>
+    <t>192.168.0.192</t>
+  </si>
+  <si>
+    <t>192.168.0.193</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.62</t>
+  </si>
+  <si>
+    <t>192.168.1.63</t>
+  </si>
+  <si>
+    <t>192.168.1.64</t>
+  </si>
+  <si>
+    <t>192.168.1.65</t>
+  </si>
+  <si>
+    <t>192.168.1.94</t>
+  </si>
+  <si>
+    <t>192.168.1.95</t>
+  </si>
+  <si>
+    <t>255.255.255.224/27</t>
+  </si>
+  <si>
+    <t>192.168.1.96</t>
+  </si>
+  <si>
+    <t>192.168.1.97</t>
+  </si>
+  <si>
+    <t>192.168.1.103</t>
+  </si>
+  <si>
+    <t>192.168.1.104</t>
+  </si>
+  <si>
+    <t>192.168.1.107</t>
+  </si>
+  <si>
+    <t>192.168.1.108</t>
+  </si>
+  <si>
+    <t>192.168.1.111</t>
+  </si>
+  <si>
+    <t>192.168.1.112</t>
+  </si>
+  <si>
+    <t>192.168.1.115</t>
+  </si>
+  <si>
+    <t>192.168.1.116</t>
+  </si>
+  <si>
+    <t>192.168.1.119</t>
+  </si>
+  <si>
+    <t>192.168.1.120</t>
+  </si>
+  <si>
+    <t>192.168.1.123</t>
+  </si>
+  <si>
+    <t>192.168.1.124</t>
+  </si>
+  <si>
+    <t>192.168.1.127</t>
+  </si>
+  <si>
+    <t>192.168.1.128</t>
+  </si>
+  <si>
+    <t>192.168.1.131</t>
+  </si>
+  <si>
+    <t>192.168.1.102</t>
+  </si>
+  <si>
+    <t>192.168.1.105</t>
+  </si>
+  <si>
+    <t>192.168.1.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.109 </t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.113 </t>
+  </si>
+  <si>
+    <t>192.168.1.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.1.118</t>
+  </si>
+  <si>
+    <t>192.168.1.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.1.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.125 </t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>192.168.1.130</t>
+  </si>
+  <si>
+    <t>255.255.255.248/29</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>ID RED</t>
+  </si>
+  <si>
+    <t>PRIMERA IP</t>
+  </si>
+  <si>
+    <t>ULTIMA IP</t>
+  </si>
+  <si>
+    <t>BROADCAST</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>MASCARA</t>
+  </si>
+  <si>
+    <t>192.168.2.64</t>
+  </si>
+  <si>
+    <t>192.168.2.128</t>
+  </si>
+  <si>
+    <t>192.168.2.192</t>
+  </si>
+  <si>
+    <t>192.168.3.0</t>
+  </si>
+  <si>
+    <t>192.168.3.64</t>
+  </si>
+  <si>
+    <t>192.168.3.96</t>
+  </si>
+  <si>
+    <t>192.168.3.104</t>
+  </si>
+  <si>
+    <t>192.168.3.108</t>
+  </si>
+  <si>
+    <t>192.168.3.112</t>
+  </si>
+  <si>
+    <t>192.168.3.116</t>
+  </si>
+  <si>
+    <t>192.168.3.120</t>
+  </si>
+  <si>
+    <t>192.168.3.124</t>
+  </si>
+  <si>
+    <t>192.168.3.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.1 </t>
+  </si>
+  <si>
+    <t>192.168.2.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.129 </t>
+  </si>
+  <si>
+    <t>192.168.2.193</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.62</t>
+  </si>
+  <si>
+    <t>192.168.3.63</t>
+  </si>
+  <si>
+    <t>192.168.3.65</t>
+  </si>
+  <si>
+    <t>192.168.3.94</t>
+  </si>
+  <si>
+    <t>192.168.3.95</t>
+  </si>
+  <si>
+    <t>192.168.3.97</t>
+  </si>
+  <si>
+    <t>192.168.3.102</t>
+  </si>
+  <si>
+    <t>192.168.3.103</t>
+  </si>
+  <si>
+    <t>192.168.3.105</t>
+  </si>
+  <si>
+    <t>192.168.3.106</t>
+  </si>
+  <si>
+    <t>192.168.3.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.109 </t>
+  </si>
+  <si>
+    <t>192.168.3.110</t>
+  </si>
+  <si>
+    <t>192.168.3.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.113 </t>
+  </si>
+  <si>
+    <t>192.168.3.114</t>
+  </si>
+  <si>
+    <t>192.168.3.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.3.118</t>
+  </si>
+  <si>
+    <t>192.168.3.119</t>
+  </si>
+  <si>
+    <t>192.168.3.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.3.122</t>
+  </si>
+  <si>
+    <t>192.168.3.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.125 </t>
+  </si>
+  <si>
+    <t>192.168.3.126</t>
+  </si>
+  <si>
+    <t>192.168.3.127</t>
+  </si>
+  <si>
+    <t>192.168.3.129</t>
+  </si>
+  <si>
+    <t>192.168.3.130</t>
+  </si>
+  <si>
+    <t>192.168.3.131</t>
+  </si>
+  <si>
+    <t>192.168.2.62</t>
+  </si>
+  <si>
+    <t>192.168.2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.2.126</t>
+  </si>
+  <si>
+    <t>192.168.2.127</t>
+  </si>
+  <si>
+    <t>192.168.2.190</t>
+  </si>
+  <si>
+    <t>192.168.2.191</t>
+  </si>
+  <si>
+    <t>192.168.2.254</t>
+  </si>
+  <si>
+    <t>192.168.2.255</t>
+  </si>
+  <si>
+    <t>Tabla VLAN Ciudad de México</t>
+  </si>
+  <si>
+    <t>Tabla VLAN Monterrey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +993,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +1133,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4513"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE82EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -936,11 +1395,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1002,27 +1470,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,17 +1482,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1127,29 +1567,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,12 +1607,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,18 +1646,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,8 +1742,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF7C80"/>
-      <color rgb="FFE20419"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <color rgb="FF808080"/>
+      <color rgb="FFFFD700"/>
+      <color rgb="FFEE82EE"/>
+      <color rgb="FF000000"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF8B4513"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1583,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-  <dimension ref="B2:AG82"/>
+  <dimension ref="B2:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,8 +2130,8 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
@@ -1615,29 +2149,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1652,10 +2186,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -1856,7 +2390,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>49</v>
       </c>
@@ -1864,10 +2398,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
@@ -1886,9 +2418,9 @@
       <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1907,9 +2439,8 @@
       <c r="G20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
@@ -1929,7 +2460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1949,7 +2480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +2500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
@@ -1989,213 +2520,177 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-    </row>
-    <row r="26" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100" t="s">
+    <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+    </row>
+    <row r="26" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="76"/>
+      <c r="C26" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-    </row>
-    <row r="27" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-    </row>
-    <row r="28" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+    </row>
+    <row r="28" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="23" t="s">
+      <c r="T28" s="89"/>
+    </row>
+    <row r="29" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="97" t="s">
+      <c r="S29" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="98"/>
+      <c r="T29" s="91"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-    </row>
-    <row r="30" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+    </row>
+    <row r="30" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="97" t="s">
+      <c r="S30" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="98"/>
+      <c r="T30" s="91"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-    </row>
-    <row r="31" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-    </row>
-    <row r="32" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="81" t="s">
+    </row>
+    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="71"/>
-      <c r="J32" s="87" t="s">
+      <c r="G32" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="87" t="s">
+      <c r="K32" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="87" t="s">
+      <c r="L32" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="84" t="s">
+      <c r="M32" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="87" t="s">
+      <c r="N32" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="84" t="s">
+      <c r="O32" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="84" t="s">
+      <c r="P32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="Q32" s="87" t="s">
+      <c r="Q32" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="R32" s="84" t="s">
+      <c r="R32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="S32" s="86" t="s">
+      <c r="S32" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="87" t="s">
+      <c r="T32" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="84" t="s">
+      <c r="U32" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="V32" s="90" t="s">
+      <c r="V32" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="84" t="s">
+      <c r="W32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="X32" s="84" t="s">
+      <c r="X32" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-    </row>
-    <row r="33" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82" t="s">
+    </row>
+    <row r="33" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80">
-        <v>1</v>
-      </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="87" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62">
+        <v>1</v>
+      </c>
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="69" t="s">
         <v>145</v>
       </c>
       <c r="J33" s="21"/>
@@ -2213,33 +2708,25 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-    </row>
-    <row r="34" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82" t="s">
+    </row>
+    <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80">
-        <v>1</v>
-      </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="87" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="62">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="69" t="s">
         <v>71</v>
       </c>
       <c r="J34" s="18"/>
@@ -2257,33 +2744,25 @@
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
       <c r="X34" s="18"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-    </row>
-    <row r="35" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82" t="s">
+    </row>
+    <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80">
-        <v>1</v>
-      </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="87" t="s">
+      <c r="E35" s="62"/>
+      <c r="F35" s="62">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="69" t="s">
         <v>72</v>
       </c>
       <c r="J35" s="18"/>
@@ -2301,33 +2780,26 @@
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
       <c r="X35" s="18"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-    </row>
-    <row r="36" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
+    </row>
+    <row r="36" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80">
+      <c r="E36" s="62"/>
+      <c r="F36" s="62">
         <v>8</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="84" t="s">
+      <c r="G36" s="23">
+        <v>34</v>
+      </c>
+      <c r="H36" s="116"/>
+      <c r="I36" s="66" t="s">
         <v>76</v>
       </c>
       <c r="J36" s="18"/>
@@ -2345,33 +2817,26 @@
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
       <c r="X36" s="18"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-    </row>
-    <row r="37" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+    </row>
+    <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80">
-        <v>1</v>
-      </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="87" t="s">
+      <c r="E37" s="62"/>
+      <c r="F37" s="62">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1</v>
+      </c>
+      <c r="H37" s="116"/>
+      <c r="I37" s="69" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="18"/>
@@ -2389,33 +2854,26 @@
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
       <c r="X37" s="18"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-    </row>
-    <row r="38" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82" t="s">
+    </row>
+    <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80">
+      <c r="E38" s="62"/>
+      <c r="F38" s="62">
         <v>3</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="69" t="s">
+      <c r="G38" s="23">
+        <v>53</v>
+      </c>
+      <c r="H38" s="116"/>
+      <c r="I38" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="18"/>
@@ -2433,33 +2891,26 @@
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
       <c r="X38" s="18"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-    </row>
-    <row r="39" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
+    </row>
+    <row r="39" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80">
+      <c r="E39" s="62"/>
+      <c r="F39" s="62">
         <v>14</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="84" t="s">
+      <c r="G39" s="23">
+        <v>47</v>
+      </c>
+      <c r="H39" s="116"/>
+      <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J39" s="18"/>
@@ -2471,39 +2922,32 @@
       <c r="P39" s="21"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="91"/>
+      <c r="S39" s="73"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
       <c r="X39" s="18"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-    </row>
-    <row r="40" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82" t="s">
+    </row>
+    <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80">
-        <v>1</v>
-      </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="89" t="s">
+      <c r="E40" s="62"/>
+      <c r="F40" s="62">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="71" t="s">
         <v>74</v>
       </c>
       <c r="J40" s="18"/>
@@ -2521,33 +2965,26 @@
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
       <c r="X40" s="18"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-    </row>
-    <row r="41" spans="2:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82" t="s">
+    </row>
+    <row r="41" spans="2:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80">
+      <c r="E41" s="62"/>
+      <c r="F41" s="62">
         <v>8</v>
       </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="84" t="s">
+      <c r="G41" s="23">
+        <v>34</v>
+      </c>
+      <c r="H41" s="116"/>
+      <c r="I41" s="66" t="s">
         <v>79</v>
       </c>
       <c r="J41" s="18"/>
@@ -2565,34 +3002,27 @@
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
       <c r="X41" s="18"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-    </row>
-    <row r="42" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="83" t="s">
+    </row>
+    <row r="42" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83">
+      <c r="E42" s="65"/>
+      <c r="F42" s="65">
         <f>H9-F49</f>
         <v>457</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="86" t="s">
+      <c r="G42" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="116"/>
+      <c r="I42" s="68" t="s">
         <v>87</v>
       </c>
       <c r="J42" s="20"/>
@@ -2601,7 +3031,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="91"/>
+      <c r="P42" s="73"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
@@ -2610,33 +3040,26 @@
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-    </row>
-    <row r="43" spans="2:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82" t="s">
+    </row>
+    <row r="43" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80">
-        <v>1</v>
-      </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="89" t="s">
+      <c r="E43" s="62"/>
+      <c r="F43" s="62">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23">
+        <v>1</v>
+      </c>
+      <c r="H43" s="116"/>
+      <c r="I43" s="71" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="18"/>
@@ -2654,33 +3077,26 @@
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
       <c r="X43" s="18"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-    </row>
-    <row r="44" spans="2:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82" t="s">
+    </row>
+    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80">
+      <c r="E44" s="62"/>
+      <c r="F44" s="62">
         <v>9</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="84" t="s">
+      <c r="G44" s="23">
+        <v>35</v>
+      </c>
+      <c r="H44" s="116"/>
+      <c r="I44" s="66" t="s">
         <v>80</v>
       </c>
       <c r="J44" s="18"/>
@@ -2698,33 +3114,26 @@
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
       <c r="X44" s="18"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
-      <c r="AD44" s="71"/>
-      <c r="AE44" s="71"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="82" t="s">
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80">
-        <v>1</v>
-      </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="90" t="s">
+      <c r="E45" s="62"/>
+      <c r="F45" s="62">
+        <v>1</v>
+      </c>
+      <c r="G45" s="23">
+        <v>1</v>
+      </c>
+      <c r="H45" s="116"/>
+      <c r="I45" s="72" t="s">
         <v>148</v>
       </c>
       <c r="J45" s="18"/>
@@ -2742,29 +3151,26 @@
       <c r="V45" s="21"/>
       <c r="W45" s="18"/>
       <c r="X45" s="18"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
-    </row>
-    <row r="46" spans="2:33" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="82" t="s">
+    </row>
+    <row r="46" spans="2:24" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80">
+      <c r="E46" s="62"/>
+      <c r="F46" s="62">
         <v>2</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="84" t="s">
+      <c r="G46" s="23">
+        <v>28</v>
+      </c>
+      <c r="H46" s="116"/>
+      <c r="I46" s="66" t="s">
         <v>81</v>
       </c>
       <c r="J46" s="18"/>
@@ -2782,29 +3188,25 @@
       <c r="V46" s="18"/>
       <c r="W46" s="21"/>
       <c r="X46" s="18"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="82" t="s">
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80">
+      <c r="E47" s="62"/>
+      <c r="F47" s="62">
         <v>4</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="84" t="s">
+      <c r="G47" s="23">
+        <v>4</v>
+      </c>
+      <c r="I47" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J47" s="18"/>
@@ -2822,1210 +3224,835 @@
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
       <c r="X47" s="21"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-    </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="80" t="s">
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="62">
         <f>SUM(F33:F41,F43:F47)</f>
         <v>55</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-    </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="71"/>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-    </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-    </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-    </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="71"/>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-    </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="71"/>
-      <c r="AA54" s="71"/>
-      <c r="AB54" s="71"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="71"/>
-      <c r="AF54" s="71"/>
-      <c r="AG54" s="71"/>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="71"/>
-      <c r="AA55" s="71"/>
-      <c r="AB55" s="71"/>
-      <c r="AC55" s="71"/>
-      <c r="AD55" s="71"/>
-      <c r="AE55" s="71"/>
-      <c r="AF55" s="71"/>
-      <c r="AG55" s="71"/>
-    </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="71"/>
-      <c r="AC56" s="71"/>
-      <c r="AD56" s="71"/>
-      <c r="AE56" s="71"/>
-      <c r="AF56" s="71"/>
-      <c r="AG56" s="71"/>
-    </row>
-    <row r="57" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="71"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="71"/>
-      <c r="AE57" s="71"/>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="71"/>
-    </row>
-    <row r="58" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="71"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="71"/>
-      <c r="AE58" s="71"/>
-      <c r="AF58" s="71"/>
-      <c r="AG58" s="71"/>
-    </row>
-    <row r="59" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="71"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71"/>
-    </row>
-    <row r="60" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="71"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="71"/>
-      <c r="AC60" s="71"/>
-      <c r="AD60" s="71"/>
-      <c r="AE60" s="71"/>
-      <c r="AF60" s="71"/>
-      <c r="AG60" s="71"/>
-    </row>
-    <row r="61" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="71"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
-      <c r="AE61" s="71"/>
-      <c r="AF61" s="71"/>
-      <c r="AG61" s="71"/>
-    </row>
-    <row r="62" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="71"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-    </row>
-    <row r="63" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="71"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
-      <c r="AA63" s="71"/>
-      <c r="AB63" s="71"/>
-      <c r="AC63" s="71"/>
-      <c r="AD63" s="71"/>
-      <c r="AE63" s="71"/>
-      <c r="AF63" s="71"/>
-      <c r="AG63" s="71"/>
-    </row>
-    <row r="64" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="71"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="71"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="71"/>
-      <c r="AA64" s="71"/>
-      <c r="AB64" s="71"/>
-      <c r="AC64" s="71"/>
-      <c r="AD64" s="71"/>
-      <c r="AE64" s="71"/>
-      <c r="AF64" s="71"/>
-      <c r="AG64" s="71"/>
-    </row>
-    <row r="65" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="71"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
-      <c r="AA65" s="71"/>
-      <c r="AB65" s="71"/>
-      <c r="AC65" s="71"/>
-      <c r="AD65" s="71"/>
-      <c r="AE65" s="71"/>
-      <c r="AF65" s="71"/>
-      <c r="AG65" s="71"/>
-    </row>
-    <row r="66" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="71"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
-      <c r="AA66" s="71"/>
-      <c r="AB66" s="71"/>
-      <c r="AC66" s="71"/>
-      <c r="AD66" s="71"/>
-      <c r="AE66" s="71"/>
-      <c r="AF66" s="71"/>
-      <c r="AG66" s="71"/>
-    </row>
-    <row r="67" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="71"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
-      <c r="AA67" s="71"/>
-      <c r="AB67" s="71"/>
-      <c r="AC67" s="71"/>
-      <c r="AD67" s="71"/>
-      <c r="AE67" s="71"/>
-      <c r="AF67" s="71"/>
-      <c r="AG67" s="71"/>
-    </row>
-    <row r="68" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="71"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="71"/>
-      <c r="Y68" s="71"/>
-      <c r="Z68" s="71"/>
-      <c r="AA68" s="71"/>
-      <c r="AB68" s="71"/>
-      <c r="AC68" s="71"/>
-      <c r="AD68" s="71"/>
-      <c r="AE68" s="71"/>
-      <c r="AF68" s="71"/>
-      <c r="AG68" s="71"/>
-    </row>
-    <row r="69" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="71"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="71"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="71"/>
-      <c r="AA69" s="71"/>
-      <c r="AB69" s="71"/>
-      <c r="AC69" s="71"/>
-      <c r="AD69" s="71"/>
-      <c r="AE69" s="71"/>
-      <c r="AF69" s="71"/>
-      <c r="AG69" s="71"/>
-    </row>
-    <row r="70" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="71"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="71"/>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
-      <c r="AA70" s="71"/>
-      <c r="AB70" s="71"/>
-      <c r="AC70" s="71"/>
-      <c r="AD70" s="71"/>
-      <c r="AE70" s="71"/>
-      <c r="AF70" s="71"/>
-      <c r="AG70" s="71"/>
-    </row>
-    <row r="71" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
-      <c r="AA71" s="71"/>
-      <c r="AB71" s="71"/>
-      <c r="AC71" s="71"/>
-      <c r="AD71" s="71"/>
-      <c r="AE71" s="71"/>
-      <c r="AF71" s="71"/>
-      <c r="AG71" s="71"/>
-    </row>
-    <row r="72" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="71"/>
-      <c r="AE72" s="71"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-    </row>
-    <row r="73" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="71"/>
-      <c r="AA73" s="71"/>
-      <c r="AB73" s="71"/>
-      <c r="AC73" s="71"/>
-      <c r="AD73" s="71"/>
-      <c r="AE73" s="71"/>
-      <c r="AF73" s="71"/>
-      <c r="AG73" s="71"/>
-    </row>
-    <row r="74" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-    </row>
-    <row r="75" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="71"/>
-      <c r="AB75" s="71"/>
-      <c r="AC75" s="71"/>
-      <c r="AD75" s="71"/>
-      <c r="AE75" s="71"/>
-      <c r="AF75" s="71"/>
-      <c r="AG75" s="71"/>
-    </row>
-    <row r="76" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-      <c r="AA76" s="71"/>
-      <c r="AB76" s="71"/>
-      <c r="AC76" s="71"/>
-      <c r="AD76" s="71"/>
-      <c r="AE76" s="71"/>
-      <c r="AF76" s="71"/>
-      <c r="AG76" s="71"/>
-    </row>
-    <row r="77" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
-      <c r="AA77" s="71"/>
-      <c r="AB77" s="71"/>
-      <c r="AC77" s="71"/>
-      <c r="AD77" s="71"/>
-      <c r="AE77" s="71"/>
-      <c r="AF77" s="71"/>
-      <c r="AG77" s="71"/>
-    </row>
-    <row r="78" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="74"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="71"/>
-      <c r="W78" s="71"/>
-      <c r="X78" s="71"/>
-      <c r="Y78" s="71"/>
-      <c r="Z78" s="71"/>
-      <c r="AA78" s="71"/>
-      <c r="AB78" s="71"/>
-      <c r="AC78" s="71"/>
-      <c r="AD78" s="71"/>
-      <c r="AE78" s="71"/>
-      <c r="AF78" s="71"/>
-      <c r="AG78" s="71"/>
-    </row>
-    <row r="79" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
-      <c r="W79" s="71"/>
-      <c r="X79" s="71"/>
-      <c r="Y79" s="71"/>
-      <c r="Z79" s="71"/>
-      <c r="AA79" s="71"/>
-      <c r="AB79" s="71"/>
-      <c r="AC79" s="71"/>
-      <c r="AD79" s="71"/>
-      <c r="AE79" s="71"/>
-      <c r="AF79" s="71"/>
-      <c r="AG79" s="71"/>
-    </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
-      <c r="W80" s="71"/>
-      <c r="X80" s="71"/>
-      <c r="Y80" s="71"/>
-      <c r="Z80" s="71"/>
-      <c r="AA80" s="71"/>
-      <c r="AB80" s="71"/>
-      <c r="AC80" s="71"/>
-      <c r="AD80" s="71"/>
-      <c r="AE80" s="71"/>
-      <c r="AF80" s="71"/>
-      <c r="AG80" s="71"/>
-    </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="71"/>
-      <c r="W81" s="71"/>
-      <c r="X81" s="71"/>
-      <c r="Y81" s="71"/>
-      <c r="Z81" s="71"/>
-      <c r="AA81" s="71"/>
-      <c r="AB81" s="71"/>
-      <c r="AC81" s="71"/>
-      <c r="AD81" s="71"/>
-      <c r="AE81" s="71"/>
-      <c r="AF81" s="71"/>
-      <c r="AG81" s="71"/>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
-      <c r="W82" s="71"/>
-      <c r="X82" s="71"/>
-      <c r="Y82" s="71"/>
-      <c r="Z82" s="71"/>
-      <c r="AA82" s="71"/>
-      <c r="AB82" s="71"/>
-      <c r="AC82" s="71"/>
-      <c r="AD82" s="71"/>
-      <c r="AE82" s="71"/>
-      <c r="AF82" s="71"/>
-      <c r="AG82" s="71"/>
+      <c r="G49" s="2">
+        <f>SUM(G33:G47)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="61"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="85"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="77">
+        <v>53</v>
+      </c>
+      <c r="H57" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="77">
+        <v>47</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="25"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" s="58">
+        <v>35</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="58">
+        <v>34</v>
+      </c>
+      <c r="H60" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" s="58">
+        <v>34</v>
+      </c>
+      <c r="H61" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="25"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+    </row>
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="77">
+        <v>28</v>
+      </c>
+      <c r="H62" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="77">
+        <v>4</v>
+      </c>
+      <c r="H63" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="25"/>
+    </row>
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="77">
+        <v>1</v>
+      </c>
+      <c r="H64" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="77">
+        <v>1</v>
+      </c>
+      <c r="H65" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="25"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
+    </row>
+    <row r="66" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="77">
+        <v>1</v>
+      </c>
+      <c r="H66" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="G67" s="77">
+        <v>1</v>
+      </c>
+      <c r="H67" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="25"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="115" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" s="77">
+        <v>1</v>
+      </c>
+      <c r="H68" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="77">
+        <v>1</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="77">
+        <v>1</v>
+      </c>
+      <c r="H70" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H72" s="24"/>
+      <c r="I72" s="25"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="25"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H73" s="24"/>
+      <c r="I73" s="25"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H74" s="24"/>
+      <c r="I74" s="25"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="25"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="F75" s="85"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="25"/>
+    </row>
+    <row r="76" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="25"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="25"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="H77" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="K77" s="24"/>
+      <c r="L77" s="25"/>
+    </row>
+    <row r="78" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="G78" s="77">
+        <v>53</v>
+      </c>
+      <c r="H78" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K78" s="24"/>
+      <c r="L78" s="25"/>
+    </row>
+    <row r="79" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="G79" s="77">
+        <v>47</v>
+      </c>
+      <c r="H79" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K79" s="24"/>
+      <c r="L79" s="25"/>
+    </row>
+    <row r="80" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" s="58">
+        <v>35</v>
+      </c>
+      <c r="H80" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="58">
+        <v>34</v>
+      </c>
+      <c r="H81" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="58">
+        <v>34</v>
+      </c>
+      <c r="H82" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="77">
+        <v>28</v>
+      </c>
+      <c r="H83" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="G84" s="77">
+        <v>4</v>
+      </c>
+      <c r="H84" s="77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="77">
+        <v>1</v>
+      </c>
+      <c r="H85" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="77">
+        <v>1</v>
+      </c>
+      <c r="H86" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="115" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="77">
+        <v>1</v>
+      </c>
+      <c r="H87" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F88" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="77">
+        <v>1</v>
+      </c>
+      <c r="H88" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="F89" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" s="77">
+        <v>1</v>
+      </c>
+      <c r="H89" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="G90" s="77">
+        <v>1</v>
+      </c>
+      <c r="H90" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="G91" s="77">
+        <v>1</v>
+      </c>
+      <c r="H91" s="77" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J28:P30"/>
+  <mergeCells count="11">
+    <mergeCell ref="E75:F76"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="C29:E30"/>
+    <mergeCell ref="E54:F55"/>
     <mergeCell ref="C26:G27"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
+    <mergeCell ref="J28:P30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4037,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B2F4F-D173-4FFA-9A5E-3653AC075074}">
   <dimension ref="C4:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="B41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,139 +4099,134 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="89"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="24"/>
+      <c r="U5" s="92"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="24"/>
+      <c r="U6" s="92"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="K8" s="87" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="K8" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="87" t="s">
+      <c r="O8" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="84" t="s">
+      <c r="P8" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="87" t="s">
+      <c r="R8" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="84" t="s">
+      <c r="S8" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="86" t="s">
+      <c r="T8" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="87" t="s">
+      <c r="U8" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="84" t="s">
+      <c r="V8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="90" t="s">
+      <c r="W8" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="X8" s="84" t="s">
+      <c r="X8" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="Y8" s="84" t="s">
+      <c r="Y8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
     </row>
     <row r="9" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="J9" s="87" t="s">
+      <c r="C9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="J9" s="69" t="s">
         <v>145</v>
       </c>
       <c r="K9" s="21"/>
@@ -4222,31 +4244,12 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
+      <c r="AA9" s="74"/>
     </row>
     <row r="10" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="J10" s="87" t="s">
+      <c r="C10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="J10" s="69" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="18"/>
@@ -4264,31 +4267,12 @@
       <c r="W10" s="18"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
+      <c r="AA10" s="74"/>
     </row>
     <row r="11" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="J11" s="87" t="s">
+      <c r="C11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="69" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="18"/>
@@ -4306,31 +4290,12 @@
       <c r="W11" s="18"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
+      <c r="AA11" s="74"/>
     </row>
     <row r="12" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="J12" s="84" t="s">
+      <c r="C12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="J12" s="66" t="s">
         <v>76</v>
       </c>
       <c r="K12" s="18"/>
@@ -4348,31 +4313,12 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
+      <c r="AA12" s="74"/>
     </row>
     <row r="13" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="J13" s="87" t="s">
+      <c r="C13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="69" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="18"/>
@@ -4390,31 +4336,12 @@
       <c r="W13" s="18"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="18"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
+      <c r="AA13" s="74"/>
     </row>
     <row r="14" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="J14" s="69" t="s">
+      <c r="C14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="J14" s="59" t="s">
         <v>77</v>
       </c>
       <c r="K14" s="18"/>
@@ -4432,31 +4359,12 @@
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="18"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
+      <c r="AA14" s="60"/>
     </row>
     <row r="15" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="J15" s="84" t="s">
+      <c r="C15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="66" t="s">
         <v>78</v>
       </c>
       <c r="K15" s="18"/>
@@ -4468,37 +4376,18 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="91"/>
+      <c r="T15" s="73"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="18"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="71"/>
+      <c r="AA15" s="74"/>
     </row>
     <row r="16" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="J16" s="89" t="s">
+      <c r="C16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="J16" s="71" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="18"/>
@@ -4516,31 +4405,12 @@
       <c r="W16" s="18"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="18"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-    </row>
-    <row r="17" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="J17" s="84" t="s">
+      <c r="AA16" s="60"/>
+    </row>
+    <row r="17" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="J17" s="66" t="s">
         <v>79</v>
       </c>
       <c r="K17" s="18"/>
@@ -4558,31 +4428,12 @@
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="18"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-    </row>
-    <row r="18" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="J18" s="86" t="s">
+      <c r="AA17" s="74"/>
+    </row>
+    <row r="18" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="J18" s="68" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="20"/>
@@ -4591,7 +4442,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="91"/>
+      <c r="Q18" s="73"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="21"/>
@@ -4600,31 +4451,12 @@
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-    </row>
-    <row r="19" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="J19" s="89" t="s">
+      <c r="AA18" s="74"/>
+    </row>
+    <row r="19" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="J19" s="71" t="s">
         <v>75</v>
       </c>
       <c r="K19" s="18"/>
@@ -4642,31 +4474,12 @@
       <c r="W19" s="18"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="18"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-    </row>
-    <row r="20" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="J20" s="84" t="s">
+      <c r="AA19" s="60"/>
+    </row>
+    <row r="20" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="J20" s="66" t="s">
         <v>80</v>
       </c>
       <c r="K20" s="18"/>
@@ -4684,31 +4497,12 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="18"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-    </row>
-    <row r="21" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="J21" s="90" t="s">
+      <c r="AA20" s="74"/>
+    </row>
+    <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="J21" s="72" t="s">
         <v>148</v>
       </c>
       <c r="K21" s="18"/>
@@ -4726,31 +4520,12 @@
       <c r="W21" s="21"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-    </row>
-    <row r="22" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="J22" s="84" t="s">
+      <c r="AA21" s="75"/>
+    </row>
+    <row r="22" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="J22" s="66" t="s">
         <v>81</v>
       </c>
       <c r="K22" s="18"/>
@@ -4768,31 +4543,12 @@
       <c r="W22" s="18"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="18"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-    </row>
-    <row r="23" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="J23" s="84" t="s">
+      <c r="AA22" s="74"/>
+    </row>
+    <row r="23" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="J23" s="66" t="s">
         <v>86</v>
       </c>
       <c r="K23" s="18"/>
@@ -4810,636 +4566,666 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="21"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-    </row>
-    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="AA23" s="74"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="27"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="33" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="52" t="s">
+      <c r="J33" s="25"/>
+      <c r="K33" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43">
-        <v>1</v>
-      </c>
-      <c r="H34" s="53" t="s">
+      <c r="E34" s="33"/>
+      <c r="F34" s="33">
+        <v>1</v>
+      </c>
+      <c r="G34" s="33">
+        <v>1</v>
+      </c>
+      <c r="H34" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="44">
-        <v>1</v>
-      </c>
-      <c r="K34" s="53" t="s">
+      <c r="I34" s="34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43">
-        <v>1</v>
-      </c>
-      <c r="H35" s="54" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="G35" s="33">
+        <v>1</v>
+      </c>
+      <c r="H35" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="44">
-        <v>1</v>
-      </c>
-      <c r="K35" s="54" t="s">
+      <c r="I35" s="34">
+        <v>1</v>
+      </c>
+      <c r="K35" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43">
-        <v>1</v>
-      </c>
-      <c r="H36" s="54" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
+      <c r="G36" s="33">
+        <v>1</v>
+      </c>
+      <c r="H36" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="44">
-        <v>1</v>
-      </c>
-      <c r="K36" s="54" t="s">
+      <c r="I36" s="34">
+        <v>1</v>
+      </c>
+      <c r="K36" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
         <v>8</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="G37" s="15">
+        <f>F56+F37</f>
+        <v>34</v>
+      </c>
+      <c r="H37" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="34">
         <v>4</v>
       </c>
-      <c r="K37" s="55" t="s">
+      <c r="K37" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43">
-        <v>1</v>
-      </c>
-      <c r="H38" s="55" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="33">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="34">
         <v>4</v>
       </c>
-      <c r="K38" s="55" t="s">
+      <c r="K38" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43">
-        <v>3</v>
-      </c>
-      <c r="H39" s="54" t="s">
+      <c r="E39" s="33"/>
+      <c r="F39" s="33">
+        <f>I40</f>
+        <v>27</v>
+      </c>
+      <c r="G39" s="15">
+        <f>F56+F39</f>
+        <v>53</v>
+      </c>
+      <c r="H39" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="58">
-        <v>1</v>
-      </c>
-      <c r="K39" s="54" t="s">
+      <c r="I39" s="48">
+        <v>1</v>
+      </c>
+      <c r="K39" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="60">
+      <c r="L39" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33">
         <f>SUM(I41:I43)+F47</f>
-        <v>14</v>
-      </c>
-      <c r="H40" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="15">
+        <f>F56+F40</f>
+        <v>47</v>
+      </c>
+      <c r="H40" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="34">
         <f>SUM(L40:L41)</f>
-        <v>3</v>
-      </c>
-      <c r="K40" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43">
-        <v>1</v>
-      </c>
-      <c r="H41" s="55" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="44">
-        <v>0</v>
-      </c>
-      <c r="K41" s="55" t="s">
+      <c r="I41" s="34">
+        <v>1</v>
+      </c>
+      <c r="K41" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L41" s="32">
-        <v>2</v>
+      <c r="L41" s="26">
+        <f>2+24</f>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33">
         <f>SUM(I45:I46)+F48</f>
         <v>8</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="G42" s="15">
+        <f>F56+F42</f>
+        <v>34</v>
+      </c>
+      <c r="H42" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="34">
         <f>SUM(L43:L44)</f>
         <v>9</v>
       </c>
-      <c r="K42" s="55" t="s">
+      <c r="K42" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="55" t="s">
+      <c r="E43" s="33"/>
+      <c r="F43" s="33">
+        <v>1</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+      <c r="H43" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="34">
         <v>3</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33">
         <f>SUM(I48:I50)</f>
         <v>9</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="G44" s="15">
+        <f>F56+F44</f>
+        <v>35</v>
+      </c>
+      <c r="H44" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="I44" s="44">
-        <v>1</v>
-      </c>
-      <c r="K44" s="55" t="s">
+      <c r="I44" s="34">
+        <v>1</v>
+      </c>
+      <c r="K44" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43">
-        <v>1</v>
-      </c>
-      <c r="H45" s="55" t="s">
+      <c r="E45" s="33"/>
+      <c r="F45" s="33">
+        <v>1</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="34">
         <v>0</v>
       </c>
-      <c r="K45" s="55" t="s">
+      <c r="K45" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45">
+      <c r="E46" s="35"/>
+      <c r="F46" s="35">
         <f>SUM(I52:I53)</f>
         <v>2</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="G46" s="15">
+        <f>F56+F46</f>
+        <v>28</v>
+      </c>
+      <c r="H46" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="34">
         <v>7</v>
       </c>
-      <c r="K46" s="54" t="s">
+      <c r="K46" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46">
-        <v>2</v>
-      </c>
-      <c r="H47" s="54" t="s">
+      <c r="E47" s="36"/>
+      <c r="F47" s="36">
+        <v>8</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="44">
-        <v>1</v>
-      </c>
-      <c r="K47" s="55" t="s">
+      <c r="I47" s="34">
+        <v>1</v>
+      </c>
+      <c r="K47" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64">
-        <v>1</v>
-      </c>
-      <c r="H48" s="55" t="s">
+      <c r="E48" s="54"/>
+      <c r="F48" s="54">
+        <v>1</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I48" s="44">
+      <c r="I48" s="34">
         <v>0</v>
       </c>
-      <c r="K48" s="55" t="s">
+      <c r="K48" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="L48" s="32">
+      <c r="L48" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="69">
+      <c r="E49" s="57"/>
+      <c r="F49" s="59">
         <v>4</v>
       </c>
-      <c r="H49" s="55" t="s">
+      <c r="G49" s="15">
+        <v>4</v>
+      </c>
+      <c r="H49" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="44">
+      <c r="I49" s="34">
         <v>5</v>
       </c>
-      <c r="K49" s="54" t="s">
+      <c r="K49" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="69" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="44">
+      <c r="I50" s="34">
         <f>SUM(L54:L55)</f>
         <v>4</v>
       </c>
-      <c r="K50" s="55" t="s">
+      <c r="K50" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="53">
         <f>SUM(F34:F46)+F49</f>
-        <v>55</v>
-      </c>
-      <c r="H51" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="15">
+        <f>SUM(G34:G46)+G49</f>
+        <v>242</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="I51" s="44">
-        <v>1</v>
-      </c>
-      <c r="K51" s="55" t="s">
+      <c r="I51" s="34">
+        <v>1</v>
+      </c>
+      <c r="K51" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="L51" s="32">
+      <c r="L51" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="I52" s="44">
-        <v>1</v>
-      </c>
-      <c r="K52" s="55" t="s">
+      <c r="I52" s="34">
+        <v>1</v>
+      </c>
+      <c r="K52" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H53" s="56" t="s">
+      <c r="E53" s="2">
+        <f>80+82+80</f>
+        <v>242</v>
+      </c>
+      <c r="F53">
+        <f>E53-F51</f>
+        <v>156</v>
+      </c>
+      <c r="H53" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="I53" s="44">
-        <v>1</v>
-      </c>
-      <c r="K53" s="55" t="s">
+      <c r="I53" s="34">
+        <v>1</v>
+      </c>
+      <c r="K53" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="L53" s="32">
+      <c r="L53" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="K54" s="55" t="s">
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="K54" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="44">
+      <c r="I55" s="34">
         <f>SUM(I34:I53)</f>
-        <v>48</v>
-      </c>
-      <c r="K55" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="L55" s="32">
+      <c r="L55" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="K56" s="54" t="s">
+      <c r="F56">
+        <f>F53/6</f>
+        <v>26</v>
+      </c>
+      <c r="K56" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K57" s="55" t="s">
+      <c r="K57" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="L57" s="32">
+      <c r="L57" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H58" s="30"/>
-      <c r="K58" s="56" t="s">
+      <c r="H58" s="24"/>
+      <c r="K58" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L59" s="32">
+      <c r="L59" s="26">
         <f>SUM(L34:L58)</f>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
